--- a/exel/report_fo_reg.xlsx
+++ b/exel/report_fo_reg.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,81 +479,81 @@
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Амурская область</t>
+          <t>Приморский край</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>66000</v>
+        <v>6813</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>Камчатская область</t>
+          <t>Сахалинская область</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>20025</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>Магаданская область</t>
+          <t>Хабаровский край</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>84000</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>Приморский край</t>
+          <t>Читинская область</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>58232</v>
+        <v>8016</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>Республика Саха (Якутия)</t>
+          <t>Чукотский автономный округ</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>554000</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n"/>
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>ПРИВОЛЖСКИЙ ФЕДЕРАЛЬНЫЙ ОКРУГ</t>
+        </is>
+      </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>Сахалинская область</t>
+          <t>Кировская область</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>228</v>
+        <v>86199</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>ПРИВОЛЖСКИЙ ФЕДЕРАЛЬНЫЙ ОКРУГ</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="inlineStr">
         <is>
           <t>Нижегородская область</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>27258</v>
+        <v>1590661</v>
       </c>
     </row>
     <row r="9">
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3648232</v>
+        <v>21170</v>
       </c>
     </row>
     <row r="10">
@@ -575,395 +575,346 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>68064</v>
+        <v>388970</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>Республика Марий Эл</t>
+          <t>Республика Татарстан (Татарстан)</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>Республика Татарстан (Татарстан)</t>
+          <t>Самарская область</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>37676</v>
+        <v>41342</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="inlineStr">
         <is>
+          <t>Саратовская область</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>60582</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="1" t="inlineStr">
+        <is>
           <t>Удмуртская Республика</t>
         </is>
       </c>
-      <c r="C13" t="n">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>СЕВЕРО-ЗАПАДНЫЙ ФЕДЕРАЛЬНЫЙ ОКРУГ</t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="inlineStr">
-        <is>
-          <t>Калининградская область</t>
-        </is>
-      </c>
       <c r="C14" t="n">
-        <v>51738</v>
+        <v>262</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>Ленинградская область</t>
+          <t>Чувашская Республика</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1077486</v>
+        <v>41882</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n"/>
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>СЕВЕРО-ЗАПАДНЫЙ ФЕДЕРАЛЬНЫЙ ОКРУГ</t>
+        </is>
+      </c>
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>Новгородская область</t>
+          <t>Калининградская область</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4278</v>
+        <v>3264</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="inlineStr">
         <is>
+          <t>Ленинградская область</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>3449</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
           <t>г. Санкт-Петербург</t>
         </is>
       </c>
-      <c r="C17" t="n">
-        <v>4761144</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>СЕВЕРО-КАВКАЗСКИЙ ФЕДЕРАЛЬНЫЙ ОКРУГ</t>
-        </is>
-      </c>
-      <c r="B18" s="1" t="inlineStr">
-        <is>
-          <t>Республика Северная Осетия - Алания</t>
-        </is>
-      </c>
       <c r="C18" t="n">
-        <v>1060</v>
+        <v>664016</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n"/>
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>СИБИРСКИЙ ФЕДЕРАЛЬНЫЙ ОКРУГ</t>
+        </is>
+      </c>
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>Ставропольский край</t>
+          <t>Кемеровская область</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>318</v>
+        <v>3131</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>СИБИРСКИЙ ФЕДЕРАЛЬНЫЙ ОКРУГ</t>
-        </is>
-      </c>
+      <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>Иркутская область</t>
+          <t>Новосибирская область</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>158000</v>
+        <v>5642</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>Кемеровская область</t>
+          <t>Республика Хакасия</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>220</v>
+        <v>12800</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>УРАЛЬСКИЙ ФЕДЕРАЛЬНЫЙ ОКРУГ</t>
+        </is>
+      </c>
       <c r="B22" s="1" t="inlineStr">
         <is>
-          <t>Красноярский край</t>
+          <t>Свердловская область</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1201403</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="inlineStr">
         <is>
-          <t>Новосибирская область</t>
+          <t>Тюменская область</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2040</v>
+        <v>288</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="inlineStr">
         <is>
-          <t>Омская область</t>
+          <t>Челябинская область</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>25536</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n"/>
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>ЦЕНТРАЛЬНЫЙ ФЕДЕРАЛЬНЫЙ ОКРУГ</t>
+        </is>
+      </c>
       <c r="B25" s="1" t="inlineStr">
         <is>
-          <t>Томская область</t>
+          <t>Белгородская область</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1250</v>
+        <v>41702</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>УРАЛЬСКИЙ ФЕДЕРАЛЬНЫЙ ОКРУГ</t>
-        </is>
-      </c>
+      <c r="A26" s="1" t="n"/>
       <c r="B26" s="1" t="inlineStr">
         <is>
-          <t>Свердловская область</t>
+          <t>Брянская область</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>12162</v>
+        <v>18987</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n"/>
       <c r="B27" s="1" t="inlineStr">
         <is>
-          <t>Тюменская область</t>
+          <t>Воронежская область</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>344060</v>
+        <v>180</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="1" t="inlineStr">
         <is>
-          <t>Челябинская область</t>
+          <t>Калужская область</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>146</v>
+        <v>4841145</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n"/>
       <c r="B29" s="1" t="inlineStr">
         <is>
-          <t>Ямало-Ненецкий автономный округ</t>
+          <t>Липецкая область</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>21980</v>
+        <v>31464</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="inlineStr">
-        <is>
-          <t>ЦЕНТРАЛЬНЫЙ ФЕДЕРАЛЬНЫЙ ОКРУГ</t>
-        </is>
-      </c>
+      <c r="A30" s="1" t="n"/>
       <c r="B30" s="1" t="inlineStr">
         <is>
-          <t>Белгородская область</t>
+          <t>Московская область</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>33</v>
+        <v>1020730</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n"/>
       <c r="B31" s="1" t="inlineStr">
         <is>
-          <t>Владимирская область</t>
+          <t>Рязанская область</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>11590</v>
+        <v>35968</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n"/>
       <c r="B32" s="1" t="inlineStr">
         <is>
-          <t>Калужская область</t>
+          <t>Смоленская область</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1345</v>
+        <v>6269598</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n"/>
       <c r="B33" s="1" t="inlineStr">
         <is>
-          <t>Курская область</t>
+          <t>Ярославская область</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>8400</v>
+        <v>2910</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="1" t="inlineStr">
         <is>
-          <t>Липецкая область</t>
+          <t>г. Москва</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>50</v>
+        <v>66445915</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="n"/>
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>ЮЖНЫЙ ФЕДЕРАЛЬНЫЙ ОКРУГ</t>
+        </is>
+      </c>
       <c r="B35" s="1" t="inlineStr">
         <is>
-          <t>Московская область</t>
+          <t>Волгоградская область</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1483192</v>
+        <v>143732</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n"/>
       <c r="B36" s="1" t="inlineStr">
         <is>
-          <t>Смоленская область</t>
+          <t>Краснодарский край</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>22942</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="1" t="inlineStr">
         <is>
-          <t>Тульская область</t>
+          <t>Ростовская область</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>81107</v>
+        <v>3381</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="n"/>
-      <c r="B38" s="1" t="inlineStr">
-        <is>
-          <t>г. Москва</t>
-        </is>
-      </c>
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr"/>
       <c r="C38" t="n">
-        <v>6986947</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="inlineStr">
-        <is>
-          <t>ЮЖНЫЙ ФЕДЕРАЛЬНЫЙ ОКРУГ</t>
-        </is>
-      </c>
-      <c r="B39" s="1" t="inlineStr">
-        <is>
-          <t>Волгоградская область</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>38000</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n"/>
-      <c r="B40" s="1" t="inlineStr">
-        <is>
-          <t>Краснодарский край</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>89782</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n"/>
-      <c r="B41" s="1" t="inlineStr">
-        <is>
-          <t>Ростовская область</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>230185</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="B42" s="1" t="inlineStr"/>
-      <c r="C42" t="n">
-        <v>19978780</v>
+        <v>83001734</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A25"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A30:A38"/>
-    <mergeCell ref="A39:A41"/>
+  <mergeCells count="7">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A34"/>
+    <mergeCell ref="A35:A37"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
